--- a/artfynd/A 40206-2023.xlsx
+++ b/artfynd/A 40206-2023.xlsx
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>470097.3877189563</v>
+        <v>470097</v>
       </c>
       <c r="R2" t="n">
-        <v>7039163.689399421</v>
+        <v>7039164</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,19 +756,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">

--- a/artfynd/A 40206-2023.xlsx
+++ b/artfynd/A 40206-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112069424</v>
+        <v>112370010</v>
       </c>
       <c r="B2" t="n">
-        <v>82949</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5589</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Nybodarna (Nybodarna), Jmt</t>
+          <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>470097</v>
+        <v>469821</v>
       </c>
       <c r="R2" t="n">
-        <v>7039164</v>
+        <v>7039232</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,12 +754,17 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -767,22 +773,1289 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112370009</v>
+      </c>
+      <c r="B3" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>469795</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7039224</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112370038</v>
+      </c>
+      <c r="B4" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>469826</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7039235</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112370039</v>
+      </c>
+      <c r="B5" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>469889</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7039252</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112370007</v>
+      </c>
+      <c r="B6" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>469863</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7039172</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>112370041</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90821</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5964</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sarcodon imbricatus s.str.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>469969</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7039249</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>112370008</v>
+      </c>
+      <c r="B8" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>469854</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7039173</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112370025</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>469994</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7039247</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>hack</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112069424</v>
+      </c>
+      <c r="B10" t="n">
+        <v>83072</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5589</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rödbrun klubbdyna</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Trichoderma nybergianum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Nybodarna (Nybodarna), Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>470097</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7039164</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
           <t>Rashid Kadhim</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AX10" t="inlineStr">
         <is>
           <t>Rashid Kadhim</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr"/>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112370044</v>
+      </c>
+      <c r="B11" t="n">
+        <v>85836</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>510</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Doftskinn</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cystostereum murrayi</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>470103</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7039057</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112370040</v>
+      </c>
+      <c r="B12" t="n">
+        <v>77636</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>470143</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7039263</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112370037</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89557</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>470039</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7039048</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112370045</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90785</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Grantaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Bankera violascens</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>470217</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7038987</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 40206-2023.xlsx
+++ b/artfynd/A 40206-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112370010</v>
+        <v>112370039</v>
       </c>
       <c r="B2" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469821</v>
+        <v>469889</v>
       </c>
       <c r="R2" t="n">
-        <v>7039232</v>
+        <v>7039252</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,11 +756,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112370009</v>
+        <v>112370010</v>
       </c>
       <c r="B3" t="n">
         <v>56430</v>
@@ -835,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469795</v>
+        <v>469821</v>
       </c>
       <c r="R3" t="n">
-        <v>7039224</v>
+        <v>7039232</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -875,7 +866,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -902,10 +893,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112370038</v>
+        <v>112370025</v>
       </c>
       <c r="B4" t="n">
-        <v>77636</v>
+        <v>56446</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,34 +909,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469826</v>
+        <v>469994</v>
       </c>
       <c r="R4" t="n">
-        <v>7039235</v>
+        <v>7039247</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -978,6 +973,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,10 +1004,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112370039</v>
+        <v>112370038</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469889</v>
+        <v>469826</v>
       </c>
       <c r="R5" t="n">
-        <v>7039252</v>
+        <v>7039235</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112370007</v>
+        <v>112370008</v>
       </c>
       <c r="B6" t="n">
         <v>56430</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469863</v>
+        <v>469854</v>
       </c>
       <c r="R6" t="n">
-        <v>7039172</v>
+        <v>7039173</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1217,10 +1217,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112370041</v>
+        <v>112370009</v>
       </c>
       <c r="B7" t="n">
-        <v>90821</v>
+        <v>56430</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1229,30 +1229,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5964</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1260,10 +1261,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>469969</v>
+        <v>469795</v>
       </c>
       <c r="R7" t="n">
-        <v>7039249</v>
+        <v>7039224</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1298,13 +1299,17 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1323,10 +1328,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112370008</v>
+        <v>112370041</v>
       </c>
       <c r="B8" t="n">
-        <v>56430</v>
+        <v>90835</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1335,31 +1340,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1367,10 +1371,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>469854</v>
+        <v>469969</v>
       </c>
       <c r="R8" t="n">
-        <v>7039173</v>
+        <v>7039249</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1405,17 +1409,13 @@
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112370025</v>
+        <v>112370007</v>
       </c>
       <c r="B9" t="n">
-        <v>56446</v>
+        <v>56430</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1478,10 +1478,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>469994</v>
+        <v>469863</v>
       </c>
       <c r="R9" t="n">
-        <v>7039247</v>
+        <v>7039172</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1548,7 +1548,7 @@
         <v>112069424</v>
       </c>
       <c r="B10" t="n">
-        <v>83072</v>
+        <v>83086</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>112370044</v>
       </c>
       <c r="B11" t="n">
-        <v>85836</v>
+        <v>85850</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112370040</v>
+        <v>112370045</v>
       </c>
       <c r="B12" t="n">
-        <v>77636</v>
+        <v>90799</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1769,21 +1769,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>1968</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>470143</v>
+        <v>470217</v>
       </c>
       <c r="R12" t="n">
-        <v>7039263</v>
+        <v>7038987</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1855,10 +1855,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112370037</v>
+        <v>112370040</v>
       </c>
       <c r="B13" t="n">
-        <v>89557</v>
+        <v>77650</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1871,21 +1871,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1895,10 +1895,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>470039</v>
+        <v>470143</v>
       </c>
       <c r="R13" t="n">
-        <v>7039048</v>
+        <v>7039263</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112370045</v>
+        <v>112370037</v>
       </c>
       <c r="B14" t="n">
-        <v>90785</v>
+        <v>89571</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1973,21 +1973,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1968</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1997,10 +1997,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>470217</v>
+        <v>470039</v>
       </c>
       <c r="R14" t="n">
-        <v>7038987</v>
+        <v>7039048</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2027,12 +2027,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 40206-2023.xlsx
+++ b/artfynd/A 40206-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112370039</v>
+        <v>112069424</v>
       </c>
       <c r="B2" t="n">
-        <v>77650</v>
+        <v>83086</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>5589</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>nybodarna Österulvsås, Jmt</t>
+          <t>Nybodarna (Nybodarna), Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469889</v>
+        <v>470097</v>
       </c>
       <c r="R2" t="n">
-        <v>7039252</v>
+        <v>7039164</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,12 +753,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -764,18 +767,19 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -893,10 +897,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112370025</v>
+        <v>112370039</v>
       </c>
       <c r="B4" t="n">
-        <v>56446</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -909,38 +913,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469994</v>
+        <v>469889</v>
       </c>
       <c r="R4" t="n">
-        <v>7039247</v>
+        <v>7039252</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -973,11 +973,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,10 +999,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112370038</v>
+        <v>112370009</v>
       </c>
       <c r="B5" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1020,34 +1015,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469826</v>
+        <v>469795</v>
       </c>
       <c r="R5" t="n">
-        <v>7039235</v>
+        <v>7039224</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1080,6 +1079,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1106,10 +1110,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112370008</v>
+        <v>112370044</v>
       </c>
       <c r="B6" t="n">
-        <v>56430</v>
+        <v>85850</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1122,38 +1126,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>510</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469854</v>
+        <v>470103</v>
       </c>
       <c r="R6" t="n">
-        <v>7039173</v>
+        <v>7039057</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1180,17 +1180,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1217,10 +1212,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112370009</v>
+        <v>112370040</v>
       </c>
       <c r="B7" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1233,38 +1228,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>469795</v>
+        <v>470143</v>
       </c>
       <c r="R7" t="n">
-        <v>7039224</v>
+        <v>7039263</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1291,17 +1282,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1328,10 +1314,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112370041</v>
+        <v>112370025</v>
       </c>
       <c r="B8" t="n">
-        <v>90835</v>
+        <v>56446</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1340,30 +1326,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1371,10 +1358,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>469969</v>
+        <v>469994</v>
       </c>
       <c r="R8" t="n">
-        <v>7039249</v>
+        <v>7039247</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1409,13 +1396,17 @@
           <t>2023-09-28</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>hack</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1434,10 +1425,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112370007</v>
+        <v>112370045</v>
       </c>
       <c r="B9" t="n">
-        <v>56430</v>
+        <v>90799</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1450,38 +1441,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1968</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>469863</v>
+        <v>470217</v>
       </c>
       <c r="R9" t="n">
-        <v>7039172</v>
+        <v>7038987</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,11 +1501,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1545,10 +1527,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112069424</v>
+        <v>112370007</v>
       </c>
       <c r="B10" t="n">
-        <v>83086</v>
+        <v>56430</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1561,37 +1543,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5589</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Nybodarna (Nybodarna), Jmt</t>
+          <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>470097</v>
+        <v>469863</v>
       </c>
       <c r="R10" t="n">
-        <v>7039164</v>
+        <v>7039172</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1618,12 +1601,17 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1632,29 +1620,28 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112370044</v>
+        <v>112370008</v>
       </c>
       <c r="B11" t="n">
-        <v>85850</v>
+        <v>56430</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1667,34 +1654,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>470103</v>
+        <v>469854</v>
       </c>
       <c r="R11" t="n">
-        <v>7039057</v>
+        <v>7039173</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1721,12 +1712,17 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1753,10 +1749,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112370045</v>
+        <v>112370041</v>
       </c>
       <c r="B12" t="n">
-        <v>90799</v>
+        <v>90835</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1765,38 +1761,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1968</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>470217</v>
+        <v>469969</v>
       </c>
       <c r="R12" t="n">
-        <v>7038987</v>
+        <v>7039249</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1837,6 +1836,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112370040</v>
+        <v>112370038</v>
       </c>
       <c r="B13" t="n">
         <v>77650</v>
@@ -1895,10 +1895,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>470143</v>
+        <v>469826</v>
       </c>
       <c r="R13" t="n">
-        <v>7039263</v>
+        <v>7039235</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1925,12 +1925,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AD13" t="b">
